--- a/13 strange/13 weird.xlsx
+++ b/13 strange/13 weird.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\13 strange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D2BAD6-3EC1-4FAF-9FE0-501D5736572C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF8EED0-5F72-4B3A-815C-0DA873588F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pomiar" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz1" sheetId="2" r:id="rId2"/>
+    <sheet name="m i hz" sheetId="3" r:id="rId1"/>
+    <sheet name="Pomiar" sheetId="1" r:id="rId2"/>
+    <sheet name="Zadania" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Lp</t>
   </si>
@@ -45,12 +46,6 @@
     <t>f, kHz</t>
   </si>
   <si>
-    <t>x∆1</t>
-  </si>
-  <si>
-    <t>x∆2</t>
-  </si>
-  <si>
     <t>x1</t>
   </si>
   <si>
@@ -69,10 +64,136 @@
     <t>cm</t>
   </si>
   <si>
-    <t>u(x)</t>
-  </si>
-  <si>
-    <t>x∆3</t>
+    <t>∆x1</t>
+  </si>
+  <si>
+    <t>∆x2</t>
+  </si>
+  <si>
+    <t>∆x3</t>
+  </si>
+  <si>
+    <t>∆xśr</t>
+  </si>
+  <si>
+    <t>odch</t>
+  </si>
+  <si>
+    <t>ua(∆xśr)</t>
+  </si>
+  <si>
+    <t>fisher3:</t>
+  </si>
+  <si>
+    <t>ub(x)</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>f, Hz</t>
+  </si>
+  <si>
+    <t>z cm/kHz</t>
+  </si>
+  <si>
+    <t>c m/s</t>
+  </si>
+  <si>
+    <t>u(∆xśr) cm</t>
+  </si>
+  <si>
+    <t>u(c) m/s</t>
+  </si>
+  <si>
+    <t>∆xśr, cm</t>
+  </si>
+  <si>
+    <t>ub(f), Hz</t>
+  </si>
+  <si>
+    <t>u(∆xśr) m</t>
+  </si>
+  <si>
+    <t>∆xśr, m</t>
+  </si>
+  <si>
+    <t>3,4,5)</t>
+  </si>
+  <si>
+    <t>waga = 1/u(c)^2</t>
+  </si>
+  <si>
+    <t>c*waga</t>
+  </si>
+  <si>
+    <t>śr waż c</t>
+  </si>
+  <si>
+    <t>u(src)</t>
+  </si>
+  <si>
+    <t>6)</t>
+  </si>
+  <si>
+    <t>|c-co|</t>
+  </si>
+  <si>
+    <t>k*u(c)</t>
+  </si>
+  <si>
+    <t>7)</t>
+  </si>
+  <si>
+    <t>8)</t>
+  </si>
+  <si>
+    <t>R, J/(mol*K)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> μ, g/mol</t>
+  </si>
+  <si>
+    <t>κ</t>
+  </si>
+  <si>
+    <t>T, K</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>mol</t>
+  </si>
+  <si>
+    <t>m*m</t>
+  </si>
+  <si>
+    <t>s*s</t>
+  </si>
+  <si>
+    <t>mol*K</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>u(κ)</t>
+  </si>
+  <si>
+    <t>u(T), K</t>
   </si>
 </sst>
 </file>
@@ -108,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,12 +237,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -402,11 +550,691 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BDB681-D86D-4EA9-B31D-52A364C981F2}">
+  <dimension ref="A1:V16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="2.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.90625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.7265625" style="1"/>
+    <col min="20" max="20" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>Pomiar!B2</f>
+        <v>Lp</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>Pomiar!D2</f>
+        <v>x1</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>Pomiar!E2</f>
+        <v>x2</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>Pomiar!F2</f>
+        <v>x3</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f>Pomiar!G2</f>
+        <v>x4</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <f>0.002/SQRT(3)</f>
+        <v>1.1547005383792516E-3</v>
+      </c>
+      <c r="B3" s="2">
+        <f>Pomiar!B3</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <f>Pomiar!C3*1000</f>
+        <v>1500</v>
+      </c>
+      <c r="D3" s="1">
+        <f>(0.001*C3+3*0.001*1000)/SQRT(3)</f>
+        <v>2.598076211353316</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(C3,RIGHT(TEXT(D3,"0,00E+00"),2)+1,TRUE),"(",LEFT(D3*10^LEN(D3),2),")")</f>
+        <v>1500,0(25)</v>
+      </c>
+      <c r="F3" s="1">
+        <f>Pomiar!D3/100</f>
+        <v>2.13</v>
+      </c>
+      <c r="G3" s="1">
+        <f>Pomiar!E3/100</f>
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="H3" s="1">
+        <f>Pomiar!F3/100</f>
+        <v>2.36</v>
+      </c>
+      <c r="I3" s="1">
+        <f>Pomiar!G3/100</f>
+        <v>2.4730000000000003</v>
+      </c>
+      <c r="J3" s="1">
+        <f>ABS(G3-F3)</f>
+        <v>0.11400000000000032</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:L7" si="0">ABS(H3-G3)</f>
+        <v>0.11599999999999966</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11300000000000043</v>
+      </c>
+      <c r="M3" s="1">
+        <f>AVERAGE(J3:L3)</f>
+        <v>0.11433333333333347</v>
+      </c>
+      <c r="N3" s="1">
+        <f>STDEVA(J3:L3)</f>
+        <v>1.5275252316515361E-3</v>
+      </c>
+      <c r="O3" s="1">
+        <f>N3*$A$5/SQRT(3-1)</f>
+        <v>1.4268430770990801E-3</v>
+      </c>
+      <c r="P3" s="1">
+        <f>SQRT(O3^2+$A$3^2)</f>
+        <v>1.8355420180423288E-3</v>
+      </c>
+      <c r="Q3" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(M3,RIGHT(TEXT($P3,"0,00E+00"),2)+1,TRUE),"(",LEFT($P3*10^LEN($P3),2),")")</f>
+        <v>0,1143(18)</v>
+      </c>
+      <c r="R3" s="1">
+        <f>2*C3*M3</f>
+        <v>343.0000000000004</v>
+      </c>
+      <c r="S3" s="1">
+        <f>SQRT((2*M3*D3)^2+(2*C3*P3)^2)</f>
+        <v>5.5385808200287325</v>
+      </c>
+      <c r="T3" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(R3,RIGHT(TEXT($S3,"0,00E+00"),2)+1,TRUE),"(",LEFT($S3*10^LEN($S3),2),")")</f>
+        <v>343,0(55)</v>
+      </c>
+      <c r="U3" s="1">
+        <f>1/S3^2</f>
+        <v>3.2598904464927574E-2</v>
+      </c>
+      <c r="V3" s="1">
+        <f>R3*U3</f>
+        <v>11.181424231470171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <f>Pomiar!B4</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <f>Pomiar!C4*1000</f>
+        <v>1600</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D7" si="1">(0.001*C4+3*0.001*1000)/SQRT(3)</f>
+        <v>2.6558112382722783</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" ref="E4:E7" si="2">_xlfn.CONCAT(FIXED(C4,RIGHT(TEXT(D4,"0,00E+00"),2)+1,TRUE),"(",LEFT(D4*10^LEN(D4),2),")")</f>
+        <v>1600,0(26)</v>
+      </c>
+      <c r="F4" s="1">
+        <f>Pomiar!D4/100</f>
+        <v>2.12</v>
+      </c>
+      <c r="G4" s="1">
+        <f>Pomiar!E4/100</f>
+        <v>2.2280000000000002</v>
+      </c>
+      <c r="H4" s="1">
+        <f>Pomiar!F4/100</f>
+        <v>2.335</v>
+      </c>
+      <c r="I4" s="1">
+        <f>Pomiar!G4/100</f>
+        <v>2.4409999999999998</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J7" si="3">ABS(G4-F4)</f>
+        <v>0.1080000000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10699999999999976</v>
+      </c>
+      <c r="L4" s="1">
+        <f>ABS(I4-H4)</f>
+        <v>0.10599999999999987</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M7" si="4">AVERAGE(J4:L4)</f>
+        <v>0.10699999999999991</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N7" si="5">STDEVA(J4:L4)</f>
+        <v>1.0000000000001119E-3</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O7" si="6">N4*$A$5/SQRT(3-1)</f>
+        <v>9.3408805794753373E-4</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:P7" si="7">SQRT(O4^2+$A$3^2)</f>
+        <v>1.485211713303369E-3</v>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f t="shared" ref="Q4:Q7" si="8">_xlfn.CONCAT(FIXED(M4,RIGHT(TEXT($P4,"0,00E+00"),2)+1,TRUE),"(",LEFT($P4*10^LEN($P4),2),")")</f>
+        <v>0,1070(14)</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" ref="R4:R7" si="9">2*C4*M4</f>
+        <v>342.39999999999975</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" ref="S4:S7" si="10">SQRT((2*M4*D4)^2+(2*C4*P4)^2)</f>
+        <v>4.7865392202162793</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f t="shared" ref="T4:T7" si="11">_xlfn.CONCAT(FIXED(R4,RIGHT(TEXT($S4,"0,00E+00"),2)+1,TRUE),"(",LEFT($S4*10^LEN($S4),2),")")</f>
+        <v>342,4(47)</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" ref="U4:U7" si="12">1/S4^2</f>
+        <v>4.3647236959846993E-2</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" ref="V4:V7" si="13">R4*U4</f>
+        <v>14.944813935051599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>1.321</v>
+      </c>
+      <c r="B5" s="2">
+        <f>Pomiar!B5</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <f>Pomiar!C5*1000</f>
+        <v>1700</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7135462651912414</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1700,0(27)</v>
+      </c>
+      <c r="F5" s="1">
+        <f>Pomiar!D5/100</f>
+        <v>2.1109999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <f>Pomiar!E5/100</f>
+        <v>2.214</v>
+      </c>
+      <c r="H5" s="1">
+        <f>Pomiar!F5/100</f>
+        <v>2.3140000000000001</v>
+      </c>
+      <c r="I5" s="1">
+        <f>Pomiar!G5/100</f>
+        <v>2.4159999999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1030000000000002</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10199999999999987</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="4"/>
+        <v>0.10166666666666672</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5275252316519722E-3</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4268430770994877E-3</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="7"/>
+        <v>1.8355420180426456E-3</v>
+      </c>
+      <c r="Q5" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0,1017(18)</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="9"/>
+        <v>345.66666666666686</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="10"/>
+        <v>6.2651857551014967</v>
+      </c>
+      <c r="T5" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>345,7(62)</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="12"/>
+        <v>2.547605022195611E-2</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="13"/>
+        <v>8.806221360056167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
+        <f>Pomiar!B6</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <f>Pomiar!C6*1000</f>
+        <v>1800</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7712812921102037</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1800,0(27)</v>
+      </c>
+      <c r="F6" s="1">
+        <f>Pomiar!D6/100</f>
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <f>Pomiar!E6/100</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H6" s="1">
+        <f>Pomiar!F6/100</f>
+        <v>2.2949999999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <f>Pomiar!G6/100</f>
+        <v>2.391</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="3"/>
+        <v>9.6000000000000085E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4999999999999751E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000085E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="4"/>
+        <v>9.5666666666666636E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="5"/>
+        <v>5.7735026918981857E-4</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="6"/>
+        <v>5.3929599170294315E-4</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2744306571956729E-3</v>
+      </c>
+      <c r="Q6" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0,0957(12)</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="9"/>
+        <v>344.39999999999986</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="10"/>
+        <v>4.6184890833838566</v>
+      </c>
+      <c r="T6" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>344,4(46)</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="12"/>
+        <v>4.688135517790068E-2</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="13"/>
+        <v>16.145938723268987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B7" s="2">
+        <f>Pomiar!B7</f>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <f>Pomiar!C7*1000</f>
+        <v>1900</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8290163190291668</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1900,0(28)</v>
+      </c>
+      <c r="F7" s="1">
+        <f>Pomiar!D7/100</f>
+        <v>2.097</v>
+      </c>
+      <c r="G7" s="1">
+        <f>Pomiar!E7/100</f>
+        <v>2.1880000000000002</v>
+      </c>
+      <c r="H7" s="1">
+        <f>Pomiar!F7/100</f>
+        <v>2.2789999999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <f>Pomiar!G7/100</f>
+        <v>2.37</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>9.1000000000000192E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
+        <v>9.0999999999999748E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>9.1000000000000192E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="4"/>
+        <v>9.1000000000000039E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5645761365345365E-16</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="6"/>
+        <v>2.3955399428338661E-16</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1547005383792516E-3</v>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0,0910(11)</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="9"/>
+        <v>345.80000000000013</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="10"/>
+        <v>4.4179673772750592</v>
+      </c>
+      <c r="T7" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>345,8(44)</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="12"/>
+        <v>5.1233613849961251E-2</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="13"/>
+        <v>17.716583669316606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="1">
+        <f>8.31*1000</f>
+        <v>8310</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I11*(C11^2)/I10/I12</f>
+        <v>1.397334350179942</v>
+      </c>
+      <c r="L10" s="1">
+        <f>SQRT((2*I11*C11/I10/I12*D11)^2+(-C11*C11*I11/I10/I12/I12*1)^2)</f>
+        <v>1.8768836202893619E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C11" s="1">
+        <f>SUM(V3:V7)/SUM(U3:U7)</f>
+        <v>344.25520101932756</v>
+      </c>
+      <c r="D11" s="1">
+        <f>SQRT(1/SUM(U3:U7))</f>
+        <v>2.2369788332518574</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>_xlfn.CONCAT(FIXED(C11,RIGHT(TEXT($D11,"0,00E+00"),2)+1,TRUE),"(",LEFT($D11*10^LEN($D11),2),")")</f>
+        <v>344,3(22)</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="1">
+        <v>28.87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="1">
+        <f>21.5+273.15</f>
+        <v>294.64999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E14" s="1">
+        <f>C11-343.2</f>
+        <v>1.0552010193275692</v>
+      </c>
+      <c r="F14" s="1">
+        <f>D11*2</f>
+        <v>4.4739576665037148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="H15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="H16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -419,16 +1247,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
@@ -536,280 +1364,516 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A05299-956A-4F6D-9758-CF647785429E}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="2.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="2.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.90625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="8.7265625" style="1"/>
+    <col min="20" max="20" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="str">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="str">
         <f>Pomiar!B2</f>
         <v>Lp</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="1" t="str">
         <f>Pomiar!C2</f>
         <v>f, kHz</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="str">
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="str">
         <f>Pomiar!D2</f>
         <v>x1</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" s="1" t="str">
         <f>Pomiar!E2</f>
         <v>x2</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H2" s="1" t="str">
         <f>Pomiar!F2</f>
         <v>x3</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" s="1" t="str">
         <f>Pomiar!G2</f>
         <v>x4</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <f>0.2/SQRT(3)</f>
         <v>0.11547005383792516</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <f>Pomiar!B3</f>
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f>Pomiar!C3</f>
         <v>1.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f>(0.001*C3+3*0.001)/SQRT(3)</f>
         <v>2.5980762113533163E-3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(C3,RIGHT(TEXT(D3,"0,00E+00"),2)+1,TRUE),"(",LEFT(D3*10^LEN(D3),2),")")</f>
+        <v>1,5000(25)</v>
+      </c>
+      <c r="F3" s="1">
         <f>Pomiar!D3</f>
         <v>213</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="1">
         <f>Pomiar!E3</f>
         <v>224.4</v>
       </c>
-      <c r="G3">
+      <c r="H3" s="1">
         <f>Pomiar!F3</f>
         <v>236</v>
       </c>
-      <c r="H3">
+      <c r="I3" s="1">
         <f>Pomiar!G3</f>
         <v>247.3</v>
       </c>
-      <c r="I3">
-        <f>ABS(F3-E3)</f>
+      <c r="J3" s="1">
+        <f>ABS(G3-F3)</f>
         <v>11.400000000000006</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:K7" si="0">ABS(G3-F3)</f>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:L7" si="0">ABS(H3-G3)</f>
         <v>11.599999999999994</v>
       </c>
-      <c r="K3">
+      <c r="L3" s="1">
         <f t="shared" si="0"/>
         <v>11.300000000000011</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B4">
+      <c r="M3" s="1">
+        <f>AVERAGE(J3:L3)</f>
+        <v>11.433333333333337</v>
+      </c>
+      <c r="N3" s="1">
+        <f>STDEVA(J3:L3)</f>
+        <v>0.15275252316518598</v>
+      </c>
+      <c r="O3" s="1">
+        <f>N3*$A$5/SQRT(3-1)</f>
+        <v>0.14268430770993826</v>
+      </c>
+      <c r="P3" s="1">
+        <f>SQRT(O3^2+$A$3^2)</f>
+        <v>0.18355420180425638</v>
+      </c>
+      <c r="Q3" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(M3,RIGHT(TEXT($P3,"0,00E+00"),2)+1,TRUE),"(",LEFT($P3*10^LEN($P3),2),")")</f>
+        <v>11,43(18)</v>
+      </c>
+      <c r="R3" s="1">
+        <f>2*C3*M3*10</f>
+        <v>343.00000000000011</v>
+      </c>
+      <c r="S3" s="1">
+        <f>SQRT((2*M3/100*D3*1000)^2+(2*C3*1000*P3/100)^2)</f>
+        <v>5.5385808200294333</v>
+      </c>
+      <c r="T3" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(R3,RIGHT(TEXT($S3,"0,00E+00"),2)+1,TRUE),"(",LEFT($S3*10^LEN($S3),2),")")</f>
+        <v>343,0(55)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
         <f>Pomiar!B4</f>
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f>Pomiar!C4</f>
         <v>1.6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" ref="D4:D7" si="1">(0.001*C4+3*0.001)/SQRT(3)</f>
         <v>2.6558112382722788E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2" t="str">
+        <f t="shared" ref="E4:E7" si="2">_xlfn.CONCAT(FIXED(C4,RIGHT(TEXT(D4,"0,00E+00"),2)+1,TRUE),"(",LEFT(D4*10^LEN(D4),2),")")</f>
+        <v>1,6000(26)</v>
+      </c>
+      <c r="F4" s="1">
         <f>Pomiar!D4</f>
         <v>212</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="1">
         <f>Pomiar!E4</f>
         <v>222.8</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="1">
         <f>Pomiar!F4</f>
         <v>233.5</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="1">
         <f>Pomiar!G4</f>
         <v>244.1</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I7" si="2">ABS(F4-E4)</f>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J7" si="3">ABS(G4-F4)</f>
         <v>10.800000000000011</v>
       </c>
-      <c r="J4">
+      <c r="K4" s="1">
         <f t="shared" si="0"/>
         <v>10.699999999999989</v>
       </c>
-      <c r="K4">
-        <f>ABS(H4-G4)</f>
+      <c r="L4" s="1">
+        <f>ABS(I4-H4)</f>
         <v>10.599999999999994</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B5">
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M7" si="4">AVERAGE(J4:L4)</f>
+        <v>10.699999999999998</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N7" si="5">STDEVA(J4:L4)</f>
+        <v>0.10000000000000853</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O7" si="6">N4*$A$5/SQRT(3-1)</f>
+        <v>9.3408805794750888E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:P7" si="7">SQRT(O4^2+$A$3^2)</f>
+        <v>0.14852117133033532</v>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f t="shared" ref="Q4:Q7" si="8">_xlfn.CONCAT(FIXED(M4,RIGHT(TEXT($P4,"0,00E+00"),2)+1,TRUE),"(",LEFT($P4*10^LEN($P4),2),")")</f>
+        <v>10,70(14)</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" ref="R4:R7" si="9">2*C4*M4*10</f>
+        <v>342.4</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" ref="S4:S7" si="10">SQRT((2*M4/100*D4*1000)^2+(2*C4*1000*P4/100)^2)</f>
+        <v>4.7865392202162287</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f t="shared" ref="T4:T7" si="11">_xlfn.CONCAT(FIXED(R4,RIGHT(TEXT($S4,"0,00E+00"),2)+1,TRUE),"(",LEFT($S4*10^LEN($S4),2),")")</f>
+        <v>342,4(47)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>1.321</v>
+      </c>
+      <c r="B5" s="2">
         <f>Pomiar!B5</f>
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f>Pomiar!C5</f>
         <v>1.7</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="1"/>
         <v>2.7135462651912412E-3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1,7000(27)</v>
+      </c>
+      <c r="F5" s="1">
         <f>Pomiar!D5</f>
         <v>211.1</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="1">
         <f>Pomiar!E5</f>
         <v>221.4</v>
       </c>
-      <c r="G5">
+      <c r="H5" s="1">
         <f>Pomiar!F5</f>
         <v>231.4</v>
       </c>
-      <c r="H5">
+      <c r="I5" s="1">
         <f>Pomiar!G5</f>
         <v>241.6</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
+      <c r="J5" s="1">
+        <f t="shared" si="3"/>
         <v>10.300000000000011</v>
       </c>
-      <c r="J5">
+      <c r="K5" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K5">
+      <c r="L5" s="1">
         <f t="shared" si="0"/>
         <v>10.199999999999989</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6">
+      <c r="M5" s="1">
+        <f t="shared" si="4"/>
+        <v>10.166666666666666</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.15275252316519838</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="6"/>
+        <v>0.14268430770994986</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="7"/>
+        <v>0.1835542018042654</v>
+      </c>
+      <c r="Q5" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>10,17(18)</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="9"/>
+        <v>345.66666666666663</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="10"/>
+        <v>6.2651857551015251</v>
+      </c>
+      <c r="T5" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>345,7(62)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
         <f>Pomiar!B6</f>
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f>Pomiar!C6</f>
         <v>1.8</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="1"/>
         <v>2.7712812921102041E-3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1,8000(27)</v>
+      </c>
+      <c r="F6" s="1">
         <f>Pomiar!D6</f>
         <v>210.4</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="1">
         <f>Pomiar!E6</f>
         <v>220</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="1">
         <f>Pomiar!F6</f>
         <v>229.5</v>
       </c>
-      <c r="H6">
+      <c r="I6" s="1">
         <f>Pomiar!G6</f>
         <v>239.1</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
+      <c r="J6" s="1">
+        <f t="shared" si="3"/>
         <v>9.5999999999999943</v>
       </c>
-      <c r="J6">
+      <c r="K6" s="1">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-      <c r="K6">
+      <c r="L6" s="1">
         <f t="shared" si="0"/>
         <v>9.5999999999999943</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B7">
+      <c r="M6" s="1">
+        <f t="shared" si="4"/>
+        <v>9.5666666666666629</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="5"/>
+        <v>5.7735026918959292E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="6"/>
+        <v>5.3929599170273228E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="7"/>
+        <v>0.12744306571955835</v>
+      </c>
+      <c r="Q6" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>9,57(12)</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="9"/>
+        <v>344.39999999999992</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="10"/>
+        <v>4.6184890833835368</v>
+      </c>
+      <c r="T6" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>344,4(46)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B7" s="2">
         <f>Pomiar!B7</f>
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <f>Pomiar!C7</f>
         <v>1.9</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f t="shared" si="1"/>
         <v>2.8290163190291665E-3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>1,9000(28)</v>
+      </c>
+      <c r="F7" s="1">
         <f>Pomiar!D7</f>
         <v>209.7</v>
       </c>
-      <c r="F7">
+      <c r="G7" s="1">
         <f>Pomiar!E7</f>
         <v>218.8</v>
       </c>
-      <c r="G7">
+      <c r="H7" s="1">
         <f>Pomiar!F7</f>
         <v>227.9</v>
       </c>
-      <c r="H7">
+      <c r="I7" s="1">
         <f>Pomiar!G7</f>
         <v>237</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
         <v>9.1000000000000227</v>
       </c>
-      <c r="J7">
+      <c r="K7" s="1">
         <f t="shared" si="0"/>
         <v>9.0999999999999943</v>
       </c>
-      <c r="K7">
+      <c r="L7" s="1">
         <f t="shared" si="0"/>
         <v>9.0999999999999943</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="4"/>
+        <v>9.1000000000000032</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6425298462602925E-14</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5342675142139661E-14</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="7"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>9,10(11)</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="9"/>
+        <v>345.80000000000013</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="10"/>
+        <v>4.4179673772750601</v>
+      </c>
+      <c r="T7" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>345,8(44)</v>
       </c>
     </row>
   </sheetData>

--- a/13 strange/13 weird.xlsx
+++ b/13 strange/13 weird.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\13 strange\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\13 strange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF8EED0-5F72-4B3A-815C-0DA873588F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240F48E1-7177-42E0-A64E-863EFE4E334C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m i hz" sheetId="3" r:id="rId1"/>
-    <sheet name="Pomiar" sheetId="1" r:id="rId2"/>
-    <sheet name="Zadania" sheetId="2" r:id="rId3"/>
+    <sheet name="Arkusz1" sheetId="4" r:id="rId2"/>
+    <sheet name="Pomiar" sheetId="1" r:id="rId3"/>
+    <sheet name="Zadania" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="100">
   <si>
     <t>Lp</t>
   </si>
@@ -194,12 +195,160 @@
   </si>
   <si>
     <t>u(T), K</t>
+  </si>
+  <si>
+    <t>9)</t>
+  </si>
+  <si>
+    <t>10)</t>
+  </si>
+  <si>
+    <t>|κ-κ0|</t>
+  </si>
+  <si>
+    <t>k*u(κ)</t>
+  </si>
+  <si>
+    <t>∆x1, m</t>
+  </si>
+  <si>
+    <t>∆x2, m</t>
+  </si>
+  <si>
+    <t>∆x3, m</t>
+  </si>
+  <si>
+    <t>x1, m</t>
+  </si>
+  <si>
+    <t>x2, m</t>
+  </si>
+  <si>
+    <t>x3, m</t>
+  </si>
+  <si>
+    <t>x4, m</t>
+  </si>
+  <si>
+    <t>0,1143(18)</t>
+  </si>
+  <si>
+    <t>0,1070(14)</t>
+  </si>
+  <si>
+    <t>0,1017(18)</t>
+  </si>
+  <si>
+    <t>0,0957(12)</t>
+  </si>
+  <si>
+    <t>0,0910(11)</t>
+  </si>
+  <si>
+    <t>343,0(55)</t>
+  </si>
+  <si>
+    <t>342,4(47)</t>
+  </si>
+  <si>
+    <t>345,7(62)</t>
+  </si>
+  <si>
+    <t>344,4(46)</t>
+  </si>
+  <si>
+    <t>345,8(44)</t>
+  </si>
+  <si>
+    <t>1500,0(25)</t>
+  </si>
+  <si>
+    <t>2,1300(11)</t>
+  </si>
+  <si>
+    <t>2,2440(11)</t>
+  </si>
+  <si>
+    <t>2,3600(11)</t>
+  </si>
+  <si>
+    <t>2,4730(11)</t>
+  </si>
+  <si>
+    <t>1600,0(26)</t>
+  </si>
+  <si>
+    <t>2,1200(11)</t>
+  </si>
+  <si>
+    <t>2,2280(11)</t>
+  </si>
+  <si>
+    <t>2,3350(11)</t>
+  </si>
+  <si>
+    <t>2,4410(11)</t>
+  </si>
+  <si>
+    <t>1700,0(27)</t>
+  </si>
+  <si>
+    <t>2,1110(11)</t>
+  </si>
+  <si>
+    <t>2,2140(11)</t>
+  </si>
+  <si>
+    <t>2,3140(11)</t>
+  </si>
+  <si>
+    <t>2,4160(11)</t>
+  </si>
+  <si>
+    <t>1800,0(27)</t>
+  </si>
+  <si>
+    <t>2,1040(11)</t>
+  </si>
+  <si>
+    <t>2,2000(11)</t>
+  </si>
+  <si>
+    <t>2,2950(11)</t>
+  </si>
+  <si>
+    <t>2,3910(11)</t>
+  </si>
+  <si>
+    <t>1900,0(28)</t>
+  </si>
+  <si>
+    <t>2,0970(11)</t>
+  </si>
+  <si>
+    <t>2,1880(11)</t>
+  </si>
+  <si>
+    <t>2,2790(11)</t>
+  </si>
+  <si>
+    <t>2,3700(11)</t>
+  </si>
+  <si>
+    <t>294,65(28)</t>
+  </si>
+  <si>
+    <t>1,397(18)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,6 +420,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -551,34 +718,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BDB681-D86D-4EA9-B31D-52A364C981F2}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14:P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="2.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.90625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.7265625" style="1"/>
-    <col min="20" max="20" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
@@ -592,7 +762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -626,13 +796,13 @@
         <v>x4</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>11</v>
@@ -665,8 +835,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <f>0.002/SQRT(3)</f>
         <v>1.1547005383792516E-3</v>
       </c>
@@ -755,7 +925,7 @@
         <v>11.181424231470171</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -844,7 +1014,7 @@
         <v>14.944813935051599</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1.321</v>
       </c>
@@ -933,7 +1103,7 @@
         <v>8.806221360056167</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <f>Pomiar!B6</f>
         <v>4</v>
@@ -1019,7 +1189,7 @@
         <v>16.145938723268987</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <f>Pomiar!B7</f>
         <v>5</v>
@@ -1105,7 +1275,15 @@
         <v>17.716583669316606</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1118,8 +1296,11 @@
       <c r="L9" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1141,11 +1322,15 @@
         <v>1.397334350179942</v>
       </c>
       <c r="L10" s="1">
-        <f>SQRT((2*I11*C11/I10/I12*D11)^2+(-C11*C11*I11/I10/I12/I12*1)^2)</f>
-        <v>1.8768836202893619E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+        <f>SQRT((2*I11*C11/I10/I12*D11)^2+(-C11*C11*I11/I10/I12/I12*I13)^2)</f>
+        <v>1.8211355211049253E-2</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f>_xlfn.CONCAT(FIXED(K10,RIGHT(TEXT($L10,"0,00E+00"),2)+1,TRUE),"(",LEFT($L10*10^LEN($L10),2),")")</f>
+        <v>1,397(18)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <f>SUM(V3:V7)/SUM(U3:U7)</f>
         <v>344.25520101932756</v>
@@ -1165,7 +1350,7 @@
         <v>28.87</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1177,7 +1362,7 @@
         <v>294.64999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1187,9 +1372,16 @@
       <c r="H13" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="E14" s="1">
+      <c r="I13" s="1">
+        <f>0.5/SQRT(3)</f>
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E14" s="7">
         <f>C11-343.2</f>
         <v>1.0552010193275692</v>
       </c>
@@ -1197,8 +1389,14 @@
         <f>D11*2</f>
         <v>4.4739576665037148</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="O14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1208,8 +1406,16 @@
       <c r="J15" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="O15" s="1">
+        <f>ABS(K10-1.4)</f>
+        <v>2.6656498200579026E-3</v>
+      </c>
+      <c r="P15" s="1">
+        <f>2*L10</f>
+        <v>3.6422710422098506E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1221,6 +1427,248 @@
       </c>
       <c r="K16" s="1" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H19" s="2" t="str">
+        <f t="shared" ref="H19:H24" si="14">B2</f>
+        <v>Lp</v>
+      </c>
+      <c r="I19" s="2" t="str">
+        <f t="shared" ref="I19:I24" si="15">E2</f>
+        <v>f, Hz</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H20" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>1500,0(25)</v>
+      </c>
+      <c r="J20" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(F3,RIGHT(TEXT($A$3,"0,00E+00"),2)+1,TRUE),"(",LEFT($A$3*10^LEN($A$3),2),")")</f>
+        <v>2,1300(11)</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f t="shared" ref="K20:M20" si="16">_xlfn.CONCAT(FIXED(G3,RIGHT(TEXT($A$3,"0,00E+00"),2)+1,TRUE),"(",LEFT($A$3*10^LEN($A$3),2),")")</f>
+        <v>2,2440(11)</v>
+      </c>
+      <c r="L20" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>2,3600(11)</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>2,4730(11)</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.11400000000000032</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.11599999999999966</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.11300000000000043</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H21" s="2">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="I21" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>1600,0(26)</v>
+      </c>
+      <c r="J21" s="2" t="str">
+        <f t="shared" ref="J21:J24" si="17">_xlfn.CONCAT(FIXED(F4,RIGHT(TEXT($A$3,"0,00E+00"),2)+1,TRUE),"(",LEFT($A$3*10^LEN($A$3),2),")")</f>
+        <v>2,1200(11)</v>
+      </c>
+      <c r="K21" s="2" t="str">
+        <f t="shared" ref="K21:K24" si="18">_xlfn.CONCAT(FIXED(G4,RIGHT(TEXT($A$3,"0,00E+00"),2)+1,TRUE),"(",LEFT($A$3*10^LEN($A$3),2),")")</f>
+        <v>2,2280(11)</v>
+      </c>
+      <c r="L21" s="2" t="str">
+        <f t="shared" ref="L21:L24" si="19">_xlfn.CONCAT(FIXED(H4,RIGHT(TEXT($A$3,"0,00E+00"),2)+1,TRUE),"(",LEFT($A$3*10^LEN($A$3),2),")")</f>
+        <v>2,3350(11)</v>
+      </c>
+      <c r="M21" s="2" t="str">
+        <f t="shared" ref="M21:M24" si="20">_xlfn.CONCAT(FIXED(I4,RIGHT(TEXT($A$3,"0,00E+00"),2)+1,TRUE),"(",LEFT($A$3*10^LEN($A$3),2),")")</f>
+        <v>2,4410(11)</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.1080000000000001</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.10699999999999976</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.10599999999999987</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H22" s="2">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="I22" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>1700,0(27)</v>
+      </c>
+      <c r="J22" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2,1110(11)</v>
+      </c>
+      <c r="K22" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>2,2140(11)</v>
+      </c>
+      <c r="L22" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>2,3140(11)</v>
+      </c>
+      <c r="M22" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2,4160(11)</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.1030000000000002</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.10199999999999987</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H23" s="2">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="I23" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>1800,0(27)</v>
+      </c>
+      <c r="J23" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2,1040(11)</v>
+      </c>
+      <c r="K23" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>2,2000(11)</v>
+      </c>
+      <c r="L23" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>2,2950(11)</v>
+      </c>
+      <c r="M23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2,3910(11)</v>
+      </c>
+      <c r="N23" s="2">
+        <v>9.6000000000000085E-2</v>
+      </c>
+      <c r="O23" s="2">
+        <v>9.4999999999999751E-2</v>
+      </c>
+      <c r="P23" s="2">
+        <v>9.6000000000000085E-2</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H24" s="2">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="I24" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>1900,0(28)</v>
+      </c>
+      <c r="J24" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>2,0970(11)</v>
+      </c>
+      <c r="K24" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>2,1880(11)</v>
+      </c>
+      <c r="L24" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>2,2790(11)</v>
+      </c>
+      <c r="M24" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>2,3700(11)</v>
+      </c>
+      <c r="N24" s="2">
+        <v>9.1000000000000192E-2</v>
+      </c>
+      <c r="O24" s="2">
+        <v>9.0999999999999748E-2</v>
+      </c>
+      <c r="P24" s="2">
+        <v>9.1000000000000192E-2</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1230,6 +1678,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489D021D-F00C-4D4F-BCFC-86EC838A5698}">
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15:U16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.11400000000000032</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.11599999999999966</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.11300000000000043</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.1080000000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.10699999999999976</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.10599999999999987</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.1030000000000002</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.10199999999999987</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9.6000000000000085E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>9.4999999999999751E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>9.6000000000000085E-2</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="2">
+        <v>9.1000000000000192E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>9.0999999999999748E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>9.1000000000000192E-2</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8">
+        <v>343.0000000000004</v>
+      </c>
+      <c r="O10" s="8">
+        <v>5.5385808200287325</v>
+      </c>
+      <c r="P10" s="9">
+        <v>3.2598904464927574E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M11" s="2">
+        <v>2</v>
+      </c>
+      <c r="N11" s="8">
+        <v>342.39999999999975</v>
+      </c>
+      <c r="O11" s="8">
+        <v>4.7865392202162793</v>
+      </c>
+      <c r="P11" s="9">
+        <v>4.3647236959846993E-2</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M12" s="2">
+        <v>3</v>
+      </c>
+      <c r="N12" s="8">
+        <v>345.66666666666686</v>
+      </c>
+      <c r="O12" s="8">
+        <v>6.2651857551014967</v>
+      </c>
+      <c r="P12" s="9">
+        <v>2.547605022195611E-2</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>1.0552010193275692</v>
+      </c>
+      <c r="R12" s="8">
+        <v>4.4739576665037148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M13" s="2">
+        <v>4</v>
+      </c>
+      <c r="N13" s="8">
+        <v>344.39999999999986</v>
+      </c>
+      <c r="O13" s="8">
+        <v>4.6184890833838566</v>
+      </c>
+      <c r="P13" s="9">
+        <v>4.688135517790068E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M14" s="2">
+        <v>5</v>
+      </c>
+      <c r="N14" s="8">
+        <v>345.80000000000013</v>
+      </c>
+      <c r="O14" s="8">
+        <v>4.4179673772750592</v>
+      </c>
+      <c r="P14" s="9">
+        <v>5.1233613849961251E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T16" s="11">
+        <v>2.6656498200579026E-3</v>
+      </c>
+      <c r="U16" s="9">
+        <v>3.6422710422098506E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="2">
+        <f>8.31*1000</f>
+        <v>8310</v>
+      </c>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="2">
+        <v>28.87</v>
+      </c>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="1" t="e">
+        <f>_xlfn.CONCAT(FIXED(K22,RIGHT(TEXT($K23,"0,00E+00"),2)+1,TRUE),"(",LEFT($K23*10^LEN($K23),2),")")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="2">
+        <f>0.5/SQRT(3)</f>
+        <v>0.28867513459481292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G7"/>
   <sheetViews>
@@ -1237,9 +2083,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1259,7 +2105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1279,7 +2125,7 @@
         <v>247.3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1299,7 +2145,7 @@
         <v>244.1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1319,7 +2165,7 @@
         <v>241.6</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1339,7 +2185,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1364,31 +2210,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A05299-956A-4F6D-9758-CF647785429E}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="2.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.90625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="8.7265625" style="1"/>
-    <col min="20" max="20" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.85546875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="8.7109375" style="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1408,7 +2254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1476,7 +2322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>0.2/SQRT(3)</f>
         <v>0.11547005383792516</v>
@@ -1558,7 +2404,7 @@
         <v>343,0(55)</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1639,7 +2485,7 @@
         <v>342,4(47)</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1.321</v>
       </c>
@@ -1720,7 +2566,7 @@
         <v>345,7(62)</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <f>Pomiar!B6</f>
         <v>4</v>
@@ -1798,7 +2644,7 @@
         <v>344,4(46)</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <f>Pomiar!B7</f>
         <v>5</v>
